--- a/datasets/2. Depurados/Contaminación/Consolidados por Ciudad 2018-2023.xlsx
+++ b/datasets/2. Depurados/Contaminación/Consolidados por Ciudad 2018-2023.xlsx
@@ -1,69 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Soy Henry\ProyectoFinalSH\datasets\1. Originales\Contaminación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soy Henry\ProyectoFinalSH\datasets\2. Depurados\Contaminación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A46595-F2CF-49F7-BEE3-735B6E1EB734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE6E5061-9990-4EA6-A085-BC71329563CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidados por Ciudad 2018-23" sheetId="1" r:id="rId1"/>
-    <sheet name="Diccionario" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Consolidados por Ciudad 2018-23'!$A$1:$O$163</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="59">
-  <si>
-    <t># Days with AQI</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>Unhealthy for Sensitive Groups</t>
-  </si>
-  <si>
-    <t>Unhealthy</t>
-  </si>
-  <si>
-    <t>Very Unhealthy</t>
-  </si>
-  <si>
-    <t>Hazardous</t>
-  </si>
-  <si>
-    <t>AQI Maximum</t>
-  </si>
-  <si>
-    <t># Days CO</t>
-  </si>
-  <si>
-    <t># Days NO2</t>
-  </si>
-  <si>
-    <t># Days O3</t>
-  </si>
-  <si>
-    <t># Days PM2.5</t>
-  </si>
-  <si>
-    <t># Days PM10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="42">
   <si>
     <t>Albany County, NY</t>
   </si>
@@ -146,68 +105,56 @@
     <t>Westchester County, NY</t>
   </si>
   <si>
-    <t>Año</t>
+    <t>year</t>
   </si>
   <si>
-    <t>Año de analisis</t>
+    <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Code </t>
+    <t>city</t>
   </si>
   <si>
-    <t>Ciudad</t>
+    <t>good</t>
   </si>
   <si>
-    <t>City</t>
+    <t>moderate</t>
   </si>
   <si>
-    <t>Codigo de ciudad</t>
+    <t>unhealthy_t</t>
   </si>
   <si>
-    <t>Cantidad de días medidos</t>
+    <t>very_unhealthy</t>
   </si>
   <si>
-    <t>Número de días en el año que tienen un valor de IQA de 0 a 50.</t>
+    <t>hazardous</t>
   </si>
   <si>
-    <t>Número de días en el año que tienen un valor de IQA de 51 a 100.</t>
+    <t>aqi_maximum</t>
   </si>
   <si>
-    <t>Número de días en el año con un valor de IQA de 101 a 150.</t>
+    <t>days_with_aqi</t>
   </si>
   <si>
-    <t>Número de días en el año con un valor de IQA de 151 a 200.</t>
+    <t>days_co</t>
   </si>
   <si>
-    <t>Número de días en el año con un valor de IQA de 201 a 300.</t>
+    <t>days_no2</t>
   </si>
   <si>
-    <t xml:space="preserve">Número de días en el año con un valor de IQA de 301 o superior. </t>
+    <t>days_o3</t>
   </si>
   <si>
-    <t>El valor de AQI diario más alto del año.</t>
+    <t>days_pm205</t>
   </si>
   <si>
-    <t>Se calcula un valor de índice diario para cada contaminante del aire medido. El valor más alto de esos valores de índice es el valor AQI, y el contaminante responsable del valor de índice más alto es el "Contaminante principal". Estas columnas indican la cantidad de días en que cada contaminante medido fue el contaminante principal.</t>
-  </si>
-  <si>
-    <t># Days PM205</t>
-  </si>
-  <si>
-    <t>Unhealthy T</t>
-  </si>
-  <si>
-    <t>Campo</t>
-  </si>
-  <si>
-    <t>Descripción</t>
+    <t>days_pm10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,13 +288,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -691,20 +631,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1060,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E82327-2926-4281-91F0-FF215CEC55FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1072,49 +1005,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1125,7 +1058,7 @@
         <v>36001</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>365</v>
@@ -1172,7 +1105,7 @@
         <v>36005</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>365</v>
@@ -1219,7 +1152,7 @@
         <v>36013</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>363</v>
@@ -1266,7 +1199,7 @@
         <v>36027</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>347</v>
@@ -1313,7 +1246,7 @@
         <v>36029</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>365</v>
@@ -1360,7 +1293,7 @@
         <v>36031</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>365</v>
@@ -1407,7 +1340,7 @@
         <v>36041</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>354</v>
@@ -1454,7 +1387,7 @@
         <v>36045</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>362</v>
@@ -1501,7 +1434,7 @@
         <v>36047</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>364</v>
@@ -1548,7 +1481,7 @@
         <v>36055</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>365</v>
@@ -1595,7 +1528,7 @@
         <v>36059</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>365</v>
@@ -1642,7 +1575,7 @@
         <v>36061</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>365</v>
@@ -1689,7 +1622,7 @@
         <v>36063</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>356</v>
@@ -1736,7 +1669,7 @@
         <v>36065</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>351</v>
@@ -1783,7 +1716,7 @@
         <v>36067</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>361</v>
@@ -1830,7 +1763,7 @@
         <v>36071</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>357</v>
@@ -1877,7 +1810,7 @@
         <v>36075</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>356</v>
@@ -1924,7 +1857,7 @@
         <v>36079</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>350</v>
@@ -1971,7 +1904,7 @@
         <v>36081</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>365</v>
@@ -2018,7 +1951,7 @@
         <v>36085</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>364</v>
@@ -2065,7 +1998,7 @@
         <v>36087</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>363</v>
@@ -2112,7 +2045,7 @@
         <v>36091</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>365</v>
@@ -2159,7 +2092,7 @@
         <v>36101</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>365</v>
@@ -2206,7 +2139,7 @@
         <v>36103</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>365</v>
@@ -2253,7 +2186,7 @@
         <v>36109</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>357</v>
@@ -2300,7 +2233,7 @@
         <v>36117</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D27">
         <v>348</v>
@@ -2347,7 +2280,7 @@
         <v>36119</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>365</v>
@@ -2394,7 +2327,7 @@
         <v>36001</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>365</v>
@@ -2441,7 +2374,7 @@
         <v>36005</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>365</v>
@@ -2488,7 +2421,7 @@
         <v>36013</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>355</v>
@@ -2535,7 +2468,7 @@
         <v>36027</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>341</v>
@@ -2582,7 +2515,7 @@
         <v>36029</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>365</v>
@@ -2629,7 +2562,7 @@
         <v>36031</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>365</v>
@@ -2676,7 +2609,7 @@
         <v>36041</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>350</v>
@@ -2723,7 +2656,7 @@
         <v>36045</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>360</v>
@@ -2770,7 +2703,7 @@
         <v>36047</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>364</v>
@@ -2817,7 +2750,7 @@
         <v>36055</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>365</v>
@@ -2864,7 +2797,7 @@
         <v>36059</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>361</v>
@@ -2911,7 +2844,7 @@
         <v>36061</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>365</v>
@@ -2958,7 +2891,7 @@
         <v>36063</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>358</v>
@@ -3005,7 +2938,7 @@
         <v>36065</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>332</v>
@@ -3052,7 +2985,7 @@
         <v>36067</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>365</v>
@@ -3099,7 +3032,7 @@
         <v>36071</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>363</v>
@@ -3146,7 +3079,7 @@
         <v>36075</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>354</v>
@@ -3193,7 +3126,7 @@
         <v>36079</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D46">
         <v>333</v>
@@ -3240,7 +3173,7 @@
         <v>36081</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D47">
         <v>365</v>
@@ -3287,7 +3220,7 @@
         <v>36085</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>365</v>
@@ -3334,7 +3267,7 @@
         <v>36087</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>365</v>
@@ -3381,7 +3314,7 @@
         <v>36091</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D50">
         <v>362</v>
@@ -3428,7 +3361,7 @@
         <v>36101</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D51">
         <v>365</v>
@@ -3475,7 +3408,7 @@
         <v>36103</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D52">
         <v>365</v>
@@ -3522,7 +3455,7 @@
         <v>36109</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D53">
         <v>361</v>
@@ -3569,7 +3502,7 @@
         <v>36117</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D54">
         <v>343</v>
@@ -3616,7 +3549,7 @@
         <v>36119</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D55">
         <v>365</v>
@@ -3663,7 +3596,7 @@
         <v>36001</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>365</v>
@@ -3710,7 +3643,7 @@
         <v>36005</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>365</v>
@@ -3757,7 +3690,7 @@
         <v>36013</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>361</v>
@@ -3804,7 +3737,7 @@
         <v>36027</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D59">
         <v>341</v>
@@ -3851,7 +3784,7 @@
         <v>36029</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>365</v>
@@ -3898,7 +3831,7 @@
         <v>36031</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>365</v>
@@ -3945,7 +3878,7 @@
         <v>36041</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>358</v>
@@ -3992,7 +3925,7 @@
         <v>36045</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D63">
         <v>351</v>
@@ -4039,7 +3972,7 @@
         <v>36047</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D64">
         <v>365</v>
@@ -4086,7 +4019,7 @@
         <v>36055</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D65">
         <v>365</v>
@@ -4133,7 +4066,7 @@
         <v>36059</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>360</v>
@@ -4180,7 +4113,7 @@
         <v>36061</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>365</v>
@@ -4227,7 +4160,7 @@
         <v>36063</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>357</v>
@@ -4274,7 +4207,7 @@
         <v>36065</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>347</v>
@@ -4321,7 +4254,7 @@
         <v>36067</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D70">
         <v>365</v>
@@ -4368,7 +4301,7 @@
         <v>36071</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D71">
         <v>364</v>
@@ -4415,7 +4348,7 @@
         <v>36075</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D72">
         <v>360</v>
@@ -4462,7 +4395,7 @@
         <v>36079</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D73">
         <v>353</v>
@@ -4509,7 +4442,7 @@
         <v>36081</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D74">
         <v>365</v>
@@ -4556,7 +4489,7 @@
         <v>36085</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D75">
         <v>364</v>
@@ -4603,7 +4536,7 @@
         <v>36087</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D76">
         <v>362</v>
@@ -4650,7 +4583,7 @@
         <v>36091</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D77">
         <v>354</v>
@@ -4697,7 +4630,7 @@
         <v>36101</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D78">
         <v>365</v>
@@ -4744,7 +4677,7 @@
         <v>36103</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D79">
         <v>365</v>
@@ -4791,7 +4724,7 @@
         <v>36109</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D80">
         <v>360</v>
@@ -4838,7 +4771,7 @@
         <v>36117</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D81">
         <v>354</v>
@@ -4885,7 +4818,7 @@
         <v>36119</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D82">
         <v>365</v>
@@ -4932,7 +4865,7 @@
         <v>36001</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>365</v>
@@ -4979,7 +4912,7 @@
         <v>36005</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>366</v>
@@ -5026,7 +4959,7 @@
         <v>36013</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>363</v>
@@ -5073,7 +5006,7 @@
         <v>36027</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D86">
         <v>331</v>
@@ -5120,7 +5053,7 @@
         <v>36029</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D87">
         <v>366</v>
@@ -5167,7 +5100,7 @@
         <v>36031</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D88">
         <v>365</v>
@@ -5214,7 +5147,7 @@
         <v>36041</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>357</v>
@@ -5261,7 +5194,7 @@
         <v>36045</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D90">
         <v>360</v>
@@ -5308,7 +5241,7 @@
         <v>36047</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D91">
         <v>365</v>
@@ -5355,7 +5288,7 @@
         <v>36055</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D92">
         <v>366</v>
@@ -5402,7 +5335,7 @@
         <v>36059</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D93">
         <v>361</v>
@@ -5449,7 +5382,7 @@
         <v>36061</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>366</v>
@@ -5496,7 +5429,7 @@
         <v>36063</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>359</v>
@@ -5543,7 +5476,7 @@
         <v>36065</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <v>349</v>
@@ -5590,7 +5523,7 @@
         <v>36067</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D97">
         <v>364</v>
@@ -5637,7 +5570,7 @@
         <v>36071</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D98">
         <v>366</v>
@@ -5684,7 +5617,7 @@
         <v>36075</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D99">
         <v>359</v>
@@ -5731,7 +5664,7 @@
         <v>36079</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D100">
         <v>314</v>
@@ -5778,7 +5711,7 @@
         <v>36081</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>366</v>
@@ -5825,7 +5758,7 @@
         <v>36085</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D102">
         <v>364</v>
@@ -5872,7 +5805,7 @@
         <v>36087</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D103">
         <v>366</v>
@@ -5919,7 +5852,7 @@
         <v>36091</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D104">
         <v>319</v>
@@ -5966,7 +5899,7 @@
         <v>36101</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D105">
         <v>365</v>
@@ -6013,7 +5946,7 @@
         <v>36103</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D106">
         <v>366</v>
@@ -6060,7 +5993,7 @@
         <v>36109</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D107">
         <v>364</v>
@@ -6107,7 +6040,7 @@
         <v>36117</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D108">
         <v>327</v>
@@ -6154,7 +6087,7 @@
         <v>36119</v>
       </c>
       <c r="C109" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D109">
         <v>363</v>
@@ -6201,7 +6134,7 @@
         <v>36001</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>365</v>
@@ -6248,7 +6181,7 @@
         <v>36005</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>365</v>
@@ -6295,7 +6228,7 @@
         <v>36013</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D112">
         <v>343</v>
@@ -6342,7 +6275,7 @@
         <v>36027</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D113">
         <v>331</v>
@@ -6389,7 +6322,7 @@
         <v>36029</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D114">
         <v>365</v>
@@ -6436,7 +6369,7 @@
         <v>36031</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D115">
         <v>364</v>
@@ -6483,7 +6416,7 @@
         <v>36041</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D116">
         <v>323</v>
@@ -6530,7 +6463,7 @@
         <v>36045</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D117">
         <v>205</v>
@@ -6577,7 +6510,7 @@
         <v>36047</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D118">
         <v>365</v>
@@ -6624,7 +6557,7 @@
         <v>36055</v>
       </c>
       <c r="C119" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D119">
         <v>365</v>
@@ -6671,7 +6604,7 @@
         <v>36059</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D120">
         <v>360</v>
@@ -6718,7 +6651,7 @@
         <v>36061</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D121">
         <v>365</v>
@@ -6765,7 +6698,7 @@
         <v>36063</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D122">
         <v>352</v>
@@ -6812,7 +6745,7 @@
         <v>36065</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D123">
         <v>355</v>
@@ -6859,7 +6792,7 @@
         <v>36067</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D124">
         <v>365</v>
@@ -6906,7 +6839,7 @@
         <v>36071</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D125">
         <v>365</v>
@@ -6953,7 +6886,7 @@
         <v>36075</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D126">
         <v>321</v>
@@ -7000,7 +6933,7 @@
         <v>36079</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D127">
         <v>329</v>
@@ -7047,7 +6980,7 @@
         <v>36081</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D128">
         <v>365</v>
@@ -7094,7 +7027,7 @@
         <v>36085</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D129">
         <v>365</v>
@@ -7141,7 +7074,7 @@
         <v>36087</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D130">
         <v>365</v>
@@ -7188,7 +7121,7 @@
         <v>36091</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D131">
         <v>331</v>
@@ -7235,7 +7168,7 @@
         <v>36101</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D132">
         <v>365</v>
@@ -7282,7 +7215,7 @@
         <v>36103</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D133">
         <v>365</v>
@@ -7329,7 +7262,7 @@
         <v>36109</v>
       </c>
       <c r="C134" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D134">
         <v>356</v>
@@ -7376,7 +7309,7 @@
         <v>36117</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D135">
         <v>268</v>
@@ -7423,7 +7356,7 @@
         <v>36119</v>
       </c>
       <c r="C136" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D136">
         <v>365</v>
@@ -7470,7 +7403,7 @@
         <v>36001</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>365</v>
@@ -7517,7 +7450,7 @@
         <v>36005</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <v>365</v>
@@ -7564,7 +7497,7 @@
         <v>36013</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D139">
         <v>358</v>
@@ -7611,7 +7544,7 @@
         <v>36027</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D140">
         <v>349</v>
@@ -7658,7 +7591,7 @@
         <v>36029</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D141">
         <v>365</v>
@@ -7705,7 +7638,7 @@
         <v>36031</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D142">
         <v>365</v>
@@ -7752,7 +7685,7 @@
         <v>36041</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D143">
         <v>352</v>
@@ -7799,7 +7732,7 @@
         <v>36045</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D144">
         <v>329</v>
@@ -7846,7 +7779,7 @@
         <v>36047</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D145">
         <v>365</v>
@@ -7893,7 +7826,7 @@
         <v>36055</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D146">
         <v>365</v>
@@ -7940,7 +7873,7 @@
         <v>36059</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D147">
         <v>365</v>
@@ -7987,7 +7920,7 @@
         <v>36061</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D148">
         <v>365</v>
@@ -8034,7 +7967,7 @@
         <v>36063</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D149">
         <v>320</v>
@@ -8081,7 +8014,7 @@
         <v>36065</v>
       </c>
       <c r="C150" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D150">
         <v>364</v>
@@ -8128,7 +8061,7 @@
         <v>36067</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D151">
         <v>364</v>
@@ -8175,7 +8108,7 @@
         <v>36071</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D152">
         <v>365</v>
@@ -8222,7 +8155,7 @@
         <v>36075</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D153">
         <v>350</v>
@@ -8269,7 +8202,7 @@
         <v>36079</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D154">
         <v>337</v>
@@ -8316,7 +8249,7 @@
         <v>36081</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D155">
         <v>365</v>
@@ -8363,7 +8296,7 @@
         <v>36085</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D156">
         <v>363</v>
@@ -8410,7 +8343,7 @@
         <v>36087</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D157">
         <v>365</v>
@@ -8457,7 +8390,7 @@
         <v>36091</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D158">
         <v>361</v>
@@ -8504,7 +8437,7 @@
         <v>36101</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D159">
         <v>363</v>
@@ -8551,7 +8484,7 @@
         <v>36103</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D160">
         <v>365</v>
@@ -8598,7 +8531,7 @@
         <v>36109</v>
       </c>
       <c r="C161" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D161">
         <v>360</v>
@@ -8645,7 +8578,7 @@
         <v>36117</v>
       </c>
       <c r="C162" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D162">
         <v>239</v>
@@ -8692,7 +8625,7 @@
         <v>36119</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D163">
         <v>365</v>
@@ -8732,182 +8665,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O163" xr:uid="{56E82327-2926-4281-91F0-FF215CEC55FC}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861C2F39-376A-432B-A5C5-E49CC49A2B02}">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B13:B17"/>
-  </mergeCells>
+  <autoFilter ref="A1:O163"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>